--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,95 +556,100 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>MA_break</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
@@ -653,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -663,12 +668,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45457.574</t>
+          <t>20759.947</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -678,27 +683,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>45.67</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.75</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -708,17 +713,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>41</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>45458</t>
+          <t>20760</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -728,32 +733,32 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -763,105 +768,110 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>198.0</t>
+          <t>236.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>71</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>3185310737.0</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>3817033821.0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>銘旺科</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>61.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>銘旺科-光電業-上市</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>11.02</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -870,7 +880,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -880,12 +890,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15724.359</t>
+          <t>45457.574</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -895,27 +905,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>34.59</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -925,17 +935,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>41</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>45458</t>
+          <t>20760</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -945,32 +955,32 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -980,105 +990,110 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>198.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1151749593.0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>3185310737.0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>銘旺科</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>61.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
           <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>銘旺科-光電業-上市</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>11.02</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1087,7 +1102,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,12 +1112,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8417.662</t>
+          <t>15724.359</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1112,27 +1127,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18.52</t>
+          <t>34.59</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>41.95</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1142,17 +1157,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>41</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>45458</t>
+          <t>20760</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1162,32 +1177,32 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1197,114 +1212,119 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>528701592.0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>1151749593.0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>銘旺科</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>61.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>銘旺科-光電業-上市</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>11.02</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1314,12 +1334,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2477.782</t>
+          <t>8417.662</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1329,27 +1349,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>38.15</t>
+          <t>41.95</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1359,17 +1379,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>41</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>45458</t>
+          <t>20760</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1379,32 +1399,32 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1414,105 +1434,110 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>72202522.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>528701592.0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>銘旺科</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>61.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
           <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>銘旺科-光電業-上市</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>11.02</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>
@@ -1521,7 +1546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1531,97 +1556,97 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2477.782</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-5.2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>20760</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2445.216</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-7.2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>37.8</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>45458</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1631,105 +1656,110 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
+          <t>18.4</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-159021917.0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>72202522.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>銘旺科</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>61.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
           <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>銘旺科-光電業-上市</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>11.02</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>
@@ -1738,7 +1768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1748,12 +1778,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2995.039</t>
+          <t>2445.216</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1763,27 +1793,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>-7.2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1793,17 +1823,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>41</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>45458</t>
+          <t>20760</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1813,12 +1843,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1828,17 +1858,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1848,322 +1878,998 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-127573545.0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
+          <t>-159021917.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
           <t>銘旺科</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>61.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
           <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>銘旺科-光電業-上市</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>11.02</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>短增右下</t>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>短增平</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-1.82</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2995.039</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10.4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>37.6</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>20760</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>-127573545.0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>銘旺科-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2025-02-26</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2429</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>-1.77</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>3548.951</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>-1.94</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>7.81</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>-0.8</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>38.3</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>45458</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>20760</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-3.67</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>0.40</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>1.96</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>23.0</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>17.81</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>77969196.0</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>銘旺科</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>61.79</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>3903</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>銘旺科-光電業-上市</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>11.02</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>短增平</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3200.652</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-6.2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>20760</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>365858667.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>銘旺科-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>短增平</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2506.792</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-14.4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>37.4</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>20760</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>356411383.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>銘旺科-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,175 +481,180 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>短增量_</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>diff_quote</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>MA_break</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>diff_quote</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
@@ -658,220 +663,225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5250.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2429</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20759.947</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>45.67</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>46.75</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>20760</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>236.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>3817033821.0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>134435.0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -880,22 +890,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45457.574</t>
+          <t>344.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,195 +915,200 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20760</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>198.0</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>3185310737.0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>4539.0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1102,22 +1117,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15724.359</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,195 +1142,200 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>34.59</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20760</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1151749593.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>-927.0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1324,22 +1344,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8417.662</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1349,219 +1369,224 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18.52</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41.95</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20760</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>10.27</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>528701592.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>-714.0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>短增平</t>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2477.782</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,219 +1596,224 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>38.15</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20760</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>18.4</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>72202522.0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>短增平</t>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2445.216</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,417 +1823,427 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-7.2</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20760</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>19.14</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-159021917.0</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>-5760.0</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>短增平</t>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
           <t>2025-02-27</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2429</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-1.82</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2995.039</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10.4</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>37.6</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>20760</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>19.57</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-127573545.0</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>-1021.0</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2212,22 +2252,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3548.951</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2237,219 +2277,224 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20760</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>18.07</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>77969196.0</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>-677.0</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>短增平</t>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3200.652</t>
+          <t>179.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2459,219 +2504,224 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-6.2</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20760</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>-27</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>16.58</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>365858667.0</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>3640.0</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>短增平</t>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2506.792</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2681,197 +2731,202 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-14.4</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20760</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>-35</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>356411383.0</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>1300.0</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>短增平</t>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,180 +481,175 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>短增量_</t>
+          <t>now_price</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>rt_price</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>rt_price</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>盤後量</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>盤後量</t>
+          <t>成交量</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>成交量</t>
+          <t>淨值倍率</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>淨值倍率</t>
+          <t>貝他值</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>貝他值</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>MA5_%</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>MA5_%</t>
+          <t>均價_%</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>均價_%</t>
+          <t>MACD_%</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>MACD_%</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>MACD-SL</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>MACD-SL</t>
+          <t>LevelArea</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>LevelArea</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>短交易量o</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量o</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>MA_break</t>
+          <t>Trend_change</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Trend_change</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>highlight_enddate</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Typelevel</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Typelevel</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
@@ -663,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +668,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5250.0</t>
+          <t>7710.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,12 +683,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -703,185 +698,180 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>24.65</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>7710</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>5250</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>286.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>329665.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>134435.0</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -890,225 +880,220 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5250.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>7710</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>344.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>5250</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>134435.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>4539.0</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1117,7 +1102,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,82 +1112,82 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>21.8</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11.56</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7710</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>5250</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1212,130 +1197,125 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4539.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>-927.0</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1344,7 +1324,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1334,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,200 +1349,195 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>7710</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>11.56</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>5250</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-927.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>-714.0</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1571,7 +1546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,215 +1556,210 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-0.77</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>21.8</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7710</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-1.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>10.55</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>5250</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-714.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1798,7 +1768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1778,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,200 +1793,195 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7710</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>11.36</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>5250</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-5760.0</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2025,7 +1990,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2000,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,82 +2015,82 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7710</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>5250</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -2135,115 +2100,110 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-5760.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>-1021.0</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2252,225 +2212,220 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7710</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-22.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
           <t>2025-02-27</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>162.0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-1.81</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>22.1</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>5250</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>-22</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-1021.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>-677.0</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="AS9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2479,7 +2434,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,12 +2444,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>179.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,67 +2459,67 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>22.1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7710</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>5250</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2574,130 +2529,125 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-677.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>3640.0</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2706,7 +2656,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2716,215 +2666,210 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>22.3</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7710</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-27.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>5250</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>-35</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>3640.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1300.0</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7710.0</t>
+          <t>2875.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,27 +683,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-6.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>37.29</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,17 +718,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7710</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -738,47 +738,47 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-6.11</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>426.0</t>
+          <t>400.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -798,17 +798,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>329665.0</t>
+          <t>248734.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -828,27 +828,27 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>57.08</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5250.0</t>
+          <t>7710.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,114 +905,114 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-3.67</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2875</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-6.11</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>24.65</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>7710</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>286.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>2025-03-10</t>
@@ -1020,17 +1020,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>134435.0</t>
+          <t>329665.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1050,27 +1050,27 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>57.08</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1102,157 +1102,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5250.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2875</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-6.11</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>344.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>7710</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>4539.0</t>
+          <t>134435.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1272,27 +1272,27 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>57.08</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1334,62 +1334,62 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>21.8</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>14.34</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7710</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1404,27 +1404,27 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-6.11</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1454,27 +1454,27 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-927.0</t>
+          <t>4539.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1494,27 +1494,27 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>57.08</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,147 +1556,147 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>21.8</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2875</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-6.11</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
           <t>99.0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-0.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-0.77</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>21.8</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>14.34</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>7710</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-714.0</t>
+          <t>-927.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1716,27 +1716,27 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>57.08</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,27 +1793,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>22.05</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1823,22 +1823,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7710</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1848,27 +1848,27 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-6.11</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1878,17 +1878,17 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>-714.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1938,27 +1938,27 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>57.08</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -1990,7 +1990,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2015,27 +2015,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2045,22 +2045,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>10.18</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7710</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2070,12 +2070,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-6.11</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -2095,22 +2095,22 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2120,27 +2120,27 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-5760.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2160,27 +2160,27 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>57.08</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2237,27 +2237,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2267,22 +2267,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>13.75</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7710</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-6.11</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2307,32 +2307,32 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2357,12 +2357,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-1021.0</t>
+          <t>-5760.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2382,27 +2382,27 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>57.08</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2434,144 +2434,144 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2875</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-6.11</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-22.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
           <t>2025-02-27</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>162.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-1.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>22.1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>7710</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-22.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
           <t>2025-03-04</t>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-677.0</t>
+          <t>-1021.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2604,27 +2604,27 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>57.08</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>179.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2681,27 +2681,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>22.1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2711,22 +2711,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>7710</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2736,22 +2736,22 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-6.11</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2761,22 +2761,22 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2791,22 +2791,22 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>3640.0</t>
+          <t>-677.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2826,27 +2826,27 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>57.08</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2875.0</t>
+          <t>1226.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,27 +683,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-6.11</t>
+          <t>-2.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>24.15</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -713,84 +713,84 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2875</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-6.11</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>400.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>2025-03-10</t>
@@ -798,17 +798,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>248734.0</t>
+          <t>-76725.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,17 +838,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>90.5</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7710.0</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,27 +905,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>13.80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -935,77 +935,77 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-6.11</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>426.0</t>
+          <t>391.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>329665.0</t>
+          <t>147288.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>90.5</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5250.0</t>
+          <t>2875.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,114 +1127,114 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>-6.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>37.29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>24.65</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-0.41</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2875</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-6.11</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>286.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>2025-03-10</t>
@@ -1242,17 +1242,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>134435.0</t>
+          <t>248734.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1282,17 +1282,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>90.5</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1324,157 +1324,157 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7710.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>344.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2875</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-6.11</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>4539.0</t>
+          <t>329665.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1504,17 +1504,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>90.5</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,117 +1556,117 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5250.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>21.8</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-6.11</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>286.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1676,27 +1676,27 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-927.0</t>
+          <t>134435.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>90.5</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>344.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,27 +1793,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1823,72 +1823,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-6.11</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1898,27 +1898,27 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-714.0</t>
+          <t>4539.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1948,17 +1948,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>90.5</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1990,7 +1990,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2015,27 +2015,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>22.05</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2045,84 +2045,84 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-6.11</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>-1.0</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2135,12 +2135,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>-927.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2170,17 +2170,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>90.5</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2237,27 +2237,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2267,17 +2267,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-6.11</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2302,37 +2302,37 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2342,27 +2342,27 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-5760.0</t>
+          <t>-714.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2392,17 +2392,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>90.5</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2444,12 +2444,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2459,132 +2459,132 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>10.59</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2875</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-6.11</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-22.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-1021.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2614,17 +2614,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>90.5</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2656,220 +2656,442 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
           <t>2025-02-27</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>-5760.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>久裕</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>90.5</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>久裕-生技醫療業-上櫃</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>生技醫療業右上</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>4173</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>162.0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-1.81</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>22.1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2875</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-6.11</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>-22.0</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>-22</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>-677.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>-1021.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>久裕</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>19.48</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>55.58</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>1831</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>90.5</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
         <is>
           <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>生技醫療業右上</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>25.76</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,11 +654,16 @@
           <t>短增level</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1226.0</t>
+          <t>4335.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.27</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.90</t>
+          <t>56.23</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>24.15</t>
+          <t>25.85</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -713,37 +718,37 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -753,32 +758,32 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>336.0</t>
+          <t>150.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -798,17 +803,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-76725.0</t>
+          <t>108405.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -828,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -874,13 +879,18 @@
       <c r="AR2" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -890,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1064.0</t>
+          <t>1226.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>-2.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13.80</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>24.15</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -935,84 +945,84 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1064</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>391.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>2025-03-10</t>
@@ -1020,17 +1030,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>147288.0</t>
+          <t>-76725.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1050,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1060,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1096,13 +1106,18 @@
       <c r="AR3" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1112,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2875.0</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-6.11</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>13.80</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1157,67 +1172,67 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>400.0</t>
+          <t>391.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1227,7 +1242,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1242,7 +1257,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1252,7 +1267,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>248734.0</t>
+          <t>147288.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1272,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1282,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1318,13 +1333,18 @@
       <c r="AR4" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1334,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7710.0</t>
+          <t>2875.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1349,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-6.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>37.29</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1379,72 +1399,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>426.0</t>
+          <t>400.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1464,17 +1484,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>329665.0</t>
+          <t>248734.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1494,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1504,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1540,13 +1560,18 @@
       <c r="AR5" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5250.0</t>
+          <t>7710.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,114 +1596,114 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>24.65</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1064</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>286.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>2025-03-10</t>
@@ -1686,17 +1711,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>134435.0</t>
+          <t>329665.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1716,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1726,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1762,163 +1787,168 @@
       <c r="AR6" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5250.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>344.0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1064</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>4539.0</t>
+          <t>134435.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1938,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1948,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1984,13 +2014,18 @@
       <c r="AR7" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2000,97 +2035,97 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>21.8</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>13.15</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -2100,17 +2135,17 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2120,27 +2155,27 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-927.0</t>
+          <t>4539.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2160,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2170,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2206,13 +2241,18 @@
       <c r="AR8" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2222,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2237,22 +2277,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2267,17 +2307,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>15.67</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2287,52 +2327,52 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2342,7 +2382,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2357,12 +2397,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-714.0</t>
+          <t>-927.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2382,7 +2422,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2392,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2428,13 +2468,18 @@
       <c r="AR9" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2444,147 +2489,147 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.77</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>21.8</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-1.35</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>11.62</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1064</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>-714.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2604,7 +2649,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2614,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2650,13 +2695,18 @@
       <c r="AR10" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2666,12 +2716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2681,27 +2731,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2711,37 +2761,37 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>12.42</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2751,7 +2801,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2761,22 +2811,22 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2786,27 +2836,27 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-5760.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2826,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2836,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2872,13 +2922,18 @@
       <c r="AR11" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2888,12 +2943,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2903,27 +2958,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2933,17 +2988,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2953,12 +3008,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2973,32 +3028,32 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3008,7 +3063,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -3023,12 +3078,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-1021.0</t>
+          <t>-5760.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3048,7 +3103,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3058,17 +3113,17 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -3094,6 +3149,11 @@
       <c r="AR12" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS12"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,22 +663,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4335.0</t>
+          <t>9435.457</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>56.23</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>25.85</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,157 +723,157 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4335</t>
+          <t>9435</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>108405.0</t>
+          <t>182218113.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>52.68</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -890,22 +890,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1226.0</t>
+          <t>221.668</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.27</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15.90</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>24.15</t>
+          <t>17.05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -945,72 +945,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4335</t>
+          <t>9435</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>336.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1025,82 +1025,82 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-76725.0</t>
+          <t>11945440.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>52.68</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1110,29 +1110,29 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1064.0</t>
+          <t>670.224</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13.80</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,72 +1172,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4335</t>
+          <t>9435</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>391.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1252,82 +1252,82 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>147288.0</t>
+          <t>6873821.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>52.68</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1344,22 +1344,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2875.0</t>
+          <t>244.087</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-6.11</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1399,77 +1399,77 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4335</t>
+          <t>9435</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.34</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>400.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1479,82 +1479,82 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>248734.0</t>
+          <t>-10153049.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>52.68</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1564,29 +1564,29 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7710.0</t>
+          <t>523.441</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,162 +1626,162 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4335</t>
+          <t>9435</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>426.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>329665.0</t>
+          <t>-25691013.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>52.68</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1791,29 +1791,29 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5250.0</t>
+          <t>318.857</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1853,72 +1853,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4335</t>
+          <t>9435</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>286.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,87 +1928,87 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>134435.0</t>
+          <t>9293770.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>52.68</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -2018,224 +2018,224 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-0.88</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>671.271</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>17.15</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>9435</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>344.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>13.15</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>4539.0</t>
+          <t>18827176.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>52.68</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -2252,22 +2252,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>1495.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,27 +2277,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2307,72 +2307,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>15.67</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4335</t>
+          <t>9435</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2382,87 +2382,87 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-927.0</t>
+          <t>26888418.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>和成</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>52.68</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2471,687 +2471,6 @@
         </is>
       </c>
       <c r="AS9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-1.14</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-0.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-0.77</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>21.8</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>15.67</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>-714.0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>久裕</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>20.52</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>1928</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>久裕-生技醫療業-上櫃</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>生技醫療業右上</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>25.76</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-1.35</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>14.7</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>59.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>久裕</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>20.52</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>1928</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>久裕-生技醫療業-上櫃</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>生技醫療業右上</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>25.76</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>15.47</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>-5760.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>久裕</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>20.52</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1928</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>久裕-生技醫療業-上櫃</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>生技醫療業右上</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>25.76</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -668,17 +668,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9435.457</t>
+          <t>34505.897</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,142 +688,142 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>19.57</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>65.6</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>18.55</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>34506</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-36.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>9435</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>172.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>182218113.0</t>
+          <t>3394548099.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -833,47 +833,47 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>52.68</t>
+          <t>32.31</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -895,134 +895,134 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10930.368</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>-0.86</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>221.668</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-1.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-0.52</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>21.30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>34506</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.34</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-51.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>17.05</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>9435</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1035,22 +1035,22 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>11945440.0</t>
+          <t>1590380965.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1060,47 +1060,47 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>52.68</t>
+          <t>32.31</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>670.224</t>
+          <t>7116.017</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,72 +1172,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>86</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>9435</t>
+          <t>34506</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1262,22 +1262,22 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>6873821.0</t>
+          <t>1150448963.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1287,47 +1287,47 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>52.68</t>
+          <t>32.31</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>244.087</t>
+          <t>7876.429</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,102 +1369,102 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-4.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>58.3</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>34506</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.94</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>0.95</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>9435</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.34</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1489,22 +1489,22 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-10153049.0</t>
+          <t>806812593.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1514,47 +1514,47 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>52.68</t>
+          <t>32.31</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>523.441</t>
+          <t>4204.659</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,72 +1626,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>86</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9435</t>
+          <t>34506</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1716,22 +1716,22 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-25691013.0</t>
+          <t>230613351.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1741,47 +1741,47 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>52.68</t>
+          <t>32.31</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1803,17 +1803,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>318.857</t>
+          <t>1587.914</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1853,72 +1853,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>86</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>9435</t>
+          <t>34506</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>9293770.0</t>
+          <t>-131079276.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1968,47 +1968,47 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>52.68</t>
+          <t>32.31</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>671.271</t>
+          <t>1925.162</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,27 +2050,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>17.15</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2080,72 +2080,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>86</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>9435</t>
+          <t>34506</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-23.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2160,32 +2160,32 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>18827176.0</t>
+          <t>-324481094.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2195,47 +2195,47 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>52.68</t>
+          <t>32.31</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2257,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1495.37</t>
+          <t>1962.477</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,27 +2277,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2307,72 +2307,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>86</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>9435</t>
+          <t>34506</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2382,37 +2382,37 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>26888418.0</t>
+          <t>-338084593.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>和成</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2422,47 +2422,47 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>52.68</t>
+          <t>32.31</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>中國, 菲律賓及其他33.17%、瓷器27.70%、銅器27.66%、櫥櫃5.36%、SMC3.70%、精密陶瓷複合材料2.42% (2023年)</t>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>和成-玻璃陶瓷-上市</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AS15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34505.897</t>
+          <t>40648.646</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>118</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>34506</t>
+          <t>40649</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -743,77 +743,77 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>226.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>3394548099.0</t>
+          <t>5712346574.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>29.78</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>32.31</t>
+          <t>32.73</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>9307</t>
+          <t>9761</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10930.368</t>
+          <t>34505.897</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -945,22 +945,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>118</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>34506</t>
+          <t>40649</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -970,47 +970,47 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-51.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1590380965.0</t>
+          <t>3394548099.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>29.78</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>32.31</t>
+          <t>32.73</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>9307</t>
+          <t>9761</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7116.017</t>
+          <t>10930.368</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>21.30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,22 +1172,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>118</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>34506</t>
+          <t>40649</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1197,47 +1197,47 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-51.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1150448963.0</t>
+          <t>1590380965.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>29.78</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>32.31</t>
+          <t>32.73</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9307</t>
+          <t>9761</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7876.429</t>
+          <t>7116.017</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-4.46</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1399,22 +1399,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>118</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>34506</t>
+          <t>40649</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1424,47 +1424,47 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>806812593.0</t>
+          <t>1150448963.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>29.78</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>32.31</t>
+          <t>32.73</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>9307</t>
+          <t>9761</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4204.659</t>
+          <t>7876.429</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>-4.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,17 +1626,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>118</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>34506</t>
+          <t>40649</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1666,32 +1666,32 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>230613351.0</t>
+          <t>806812593.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>29.78</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>32.31</t>
+          <t>32.73</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>9307</t>
+          <t>9761</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1587.914</t>
+          <t>4204.659</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1853,22 +1853,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>15.41</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>118</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>34506</t>
+          <t>40649</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1893,32 +1893,32 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-131079276.0</t>
+          <t>230613351.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>29.78</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>32.31</t>
+          <t>32.73</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>9307</t>
+          <t>9761</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1925.162</t>
+          <t>1587.914</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,114 +2050,114 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>40649</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>1.31</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-43.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>13.57</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>34506</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-23.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2170,12 +2170,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-324481094.0</t>
+          <t>-131079276.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>29.78</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>32.31</t>
+          <t>32.73</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>9307</t>
+          <t>9761</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2252,225 +2252,1587 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-2.32</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1925.162</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>56.7</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>17.59</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>40649</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-23.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>-324481094.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>32.73</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>9761</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>3605</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>-1.19</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1962.477</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>-0.67</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>-0.48</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>58.0</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>11.59</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>34506</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15.7</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>40649</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>-0.53</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>-16.0</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t>-16</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>-338084593.0</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>18.92</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>28.4</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>32.31</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>9307</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>32.73</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>9761</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
         <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-1.36</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1737.153</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-1.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-1.35</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>58.7</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>40649</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>-127183711.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>32.73</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>9761</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-2.13</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2031.931</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-1.36</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>40649</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>-18.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>222719690.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>32.73</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>9761</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1598.037</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>60.8</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>40649</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>-23.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>-37433669.0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>32.73</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>9761</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4154.034</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-1.19</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>60.3</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>40649</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>145660936.0</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>32.73</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>9761</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-5.31</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6316.454</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-5.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>59.8</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>40649</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>-526116729.0</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>32.73</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>9761</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS15"/>
+  <dimension ref="A1:AS21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,157 +663,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-2.79</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17316.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>66.9</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40648.646</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>68.8</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>40649</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>226.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>5712346574.0</t>
+          <t>3855886946.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34505.897</t>
+          <t>40648.646</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -945,102 +945,102 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>40649</t>
+          <t>17316</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>226.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>3394548099.0</t>
+          <t>5712346574.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10930.368</t>
+          <t>34505.897</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,72 +1172,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>40649</t>
+          <t>17316</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-51.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1590380965.0</t>
+          <t>3394548099.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7116.017</t>
+          <t>10930.368</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>21.30</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1399,72 +1399,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>40649</t>
+          <t>17316</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-51.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1150448963.0</t>
+          <t>1590380965.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7876.429</t>
+          <t>7116.017</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-4.46</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,72 +1626,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>40649</t>
+          <t>17316</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>806812593.0</t>
+          <t>1150448963.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4204.659</t>
+          <t>7876.429</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>-4.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>15.41</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>40649</t>
+          <t>17316</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1893,32 +1893,32 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>230613351.0</t>
+          <t>806812593.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1587.914</t>
+          <t>4204.659</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,27 +2050,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2080,37 +2080,37 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>40649</t>
+          <t>17316</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2120,32 +2120,32 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-131079276.0</t>
+          <t>230613351.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1925.162</t>
+          <t>1587.914</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,114 +2277,114 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>1.31</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-43.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>17.59</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>40649</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-23.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2397,12 +2397,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-324481094.0</t>
+          <t>-131079276.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2432,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1962.477</t>
+          <t>1925.162</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,114 +2504,114 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>56.7</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>-0.67</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-23.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>40649</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-0.53</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-16.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-338084593.0</t>
+          <t>-324481094.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2659,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1737.153</t>
+          <t>1962.477</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,17 +2731,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2761,32 +2761,32 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>14.68</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>40649</t>
+          <t>17316</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2801,32 +2801,32 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-127183711.0</t>
+          <t>-338084593.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2886,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2933,7 +2933,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2031.931</t>
+          <t>1737.153</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2958,17 +2958,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2.51</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2988,32 +2988,32 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>13.52</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>40649</t>
+          <t>17316</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3023,37 +3023,37 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3078,12 +3078,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>222719690.0</t>
+          <t>-127183711.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3113,17 +3113,17 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1598.037</t>
+          <t>2031.931</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,27 +3185,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-2.51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>60.8</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3215,72 +3215,72 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>40649</t>
+          <t>17316</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>-23.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -3305,12 +3305,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-37433669.0</t>
+          <t>222719690.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3340,17 +3340,17 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
@@ -3387,7 +3387,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3397,12 +3397,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4154.034</t>
+          <t>1598.037</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,27 +3412,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>60.3</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3442,72 +3442,72 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>40649</t>
+          <t>17316</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-23.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>145660936.0</t>
+          <t>-37433669.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
@@ -3614,227 +3614,1589 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4154.034</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-1.19</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>60.3</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>145660936.0</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>9491</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>2025-03-03</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>3605</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>-5.31</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>6316.454</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>-5.01</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>-0.72</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>12.31</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>1.24</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>59.8</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>13.08</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>40649</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>1.38</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>-0.05</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>-0.16</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>2.61</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>44.0</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>-526116729.0</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>18.92</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>29.78</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>32.73</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>9761</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>9491</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
         <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4409.347</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>63.1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>-539149398.0</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>9491</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-2.19</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6733.789</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-1.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>-295553682.0</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>9491</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-2.45</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6139.255</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>-261187936.0</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>9491</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8119.563</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>922062788.0</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>9491</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-0.76</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5973.951</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-0.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>65.3</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>-797469362.0</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>9491</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS21"/>
+  <dimension ref="A1:AS15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17316.01</t>
+          <t>12400.626</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -743,32 +743,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>3855886946.0</t>
+          <t>770148564.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -883,164 +883,164 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-2.79</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17316.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>66.9</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-2.29</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>12401</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>40648.646</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>68.8</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-2.84</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>17316</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>226.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>5712346574.0</t>
+          <t>3855886946.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34505.897</t>
+          <t>40648.646</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,22 +1172,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1197,32 +1197,32 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1232,42 +1232,42 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>226.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>3394548099.0</t>
+          <t>5712346574.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10930.368</t>
+          <t>34505.897</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1399,22 +1399,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1424,32 +1424,32 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-51.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1590380965.0</t>
+          <t>3394548099.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7116.017</t>
+          <t>10930.368</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>21.30</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,22 +1626,22 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1651,32 +1651,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-51.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1150448963.0</t>
+          <t>1590380965.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7876.429</t>
+          <t>7116.017</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-4.46</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1853,22 +1853,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1878,32 +1878,32 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>806812593.0</t>
+          <t>1150448963.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4204.659</t>
+          <t>7876.429</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,27 +2050,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>-4.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2080,17 +2080,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>230613351.0</t>
+          <t>806812593.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1587.914</t>
+          <t>4204.659</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,27 +2277,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2307,22 +2307,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>14.65</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2347,17 +2347,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-131079276.0</t>
+          <t>230613351.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2432,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1925.162</t>
+          <t>1587.914</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,114 +2504,114 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>12401</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>1.31</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-43.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>15.25</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>17316</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-23.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-324481094.0</t>
+          <t>-131079276.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2659,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1962.477</t>
+          <t>1925.162</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,114 +2731,114 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>56.7</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>13.3</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>12401</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>-0.67</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-23.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>13.3</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>17316</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-0.53</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-16.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>0</t>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-338084593.0</t>
+          <t>-324481094.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2886,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2933,7 +2933,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1737.153</t>
+          <t>1962.477</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2958,17 +2958,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2988,22 +2988,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>12.26</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3028,17 +3028,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3078,12 +3078,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-127183711.0</t>
+          <t>-338084593.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3113,17 +3113,17 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2031.931</t>
+          <t>1737.153</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,17 +3185,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-2.51</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3215,22 +3215,22 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3250,22 +3250,22 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3275,12 +3275,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3305,12 +3305,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>222719690.0</t>
+          <t>-127183711.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3340,17 +3340,17 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
@@ -3387,7 +3387,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3397,12 +3397,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1598.037</t>
+          <t>2031.931</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,27 +3412,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-2.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>60.8</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3442,22 +3442,22 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3467,32 +3467,32 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>-23.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-37433669.0</t>
+          <t>222719690.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
@@ -3614,7 +3614,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3624,12 +3624,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4154.034</t>
+          <t>1598.037</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,27 +3639,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>60.3</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3694,32 +3694,32 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-23.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>145660936.0</t>
+          <t>-37433669.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3794,17 +3794,17 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
@@ -3835,1368 +3835,6 @@
       <c r="AS15" t="inlineStr">
         <is>
           <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-5.31</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6316.454</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-5.01</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-0.72</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>12.31</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>10.61</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>17316</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>-526116729.0</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>28.96</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>9491</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4409.347</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>63.1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>17316</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>-539149398.0</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>28.96</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>9491</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-2.19</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6733.789</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-1.09</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>13.12</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>17316</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>-295553682.0</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>28.96</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>9491</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-2.45</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6139.255</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-0.73</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>17316</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>52.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>-261187936.0</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>28.96</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>9491</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8119.563</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>15.82</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>17316</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>922062788.0</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>28.96</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>9491</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-0.76</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5973.951</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-0.60</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>11.64</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>65.3</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>17316</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>-797469362.0</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>28.96</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>9491</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS21" t="inlineStr">
-        <is>
-          <t>Y</t>
         </is>
       </c>
     </row>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12400.626</t>
+          <t>7719.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,32 +723,32 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -758,17 +758,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>770148564.0</t>
+          <t>-2483298076.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -883,14 +883,14 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17316.01</t>
+          <t>12400.626</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -945,57 +945,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>3855886946.0</t>
+          <t>770148564.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,157 +1117,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-2.79</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17316.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>66.9</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-5.02</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>7719</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-4.08</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>40648.646</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>68.8</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-5.2</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>12401</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>226.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>5712346574.0</t>
+          <t>3855886946.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34505.897</t>
+          <t>40648.646</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1399,57 +1399,57 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-8.01</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1459,42 +1459,42 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>226.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>3394548099.0</t>
+          <t>5712346574.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10930.368</t>
+          <t>34505.897</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,57 +1626,57 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>-2.98</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-51.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1590380965.0</t>
+          <t>3394548099.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7116.017</t>
+          <t>10930.368</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>21.30</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1853,57 +1853,57 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-51.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1150448963.0</t>
+          <t>1590380965.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7876.429</t>
+          <t>7116.017</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,27 +2050,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-4.46</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2080,57 +2080,57 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>806812593.0</t>
+          <t>1150448963.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4204.659</t>
+          <t>7876.429</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,154 +2277,154 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>-4.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>58.3</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7719</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-4.08</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-0.94</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-56.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>-56</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>806812593.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>58.2</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>12401</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-53.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>-53</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>230613351.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>18.92</t>
@@ -2432,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1587.914</t>
+          <t>4204.659</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,27 +2504,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2534,37 +2534,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2574,17 +2574,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-131079276.0</t>
+          <t>230613351.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2659,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1925.162</t>
+          <t>1587.914</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,114 +2731,114 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7719</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>1.31</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-4.08</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-43.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>13.3</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>12401</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-23.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>0</t>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-324481094.0</t>
+          <t>-131079276.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2886,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2933,7 +2933,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1962.477</t>
+          <t>1925.162</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2958,114 +2958,114 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>56.7</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>7719</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-4.08</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>-0.67</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-23.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>11.31</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>12401</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>-0.53</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-16.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>0</t>
@@ -3078,12 +3078,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-338084593.0</t>
+          <t>-324481094.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3113,17 +3113,17 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1737.153</t>
+          <t>1962.477</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,17 +3185,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3215,32 +3215,32 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3255,17 +3255,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3275,12 +3275,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3305,12 +3305,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-127183711.0</t>
+          <t>-338084593.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3340,17 +3340,17 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
@@ -3387,7 +3387,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3397,12 +3397,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2031.931</t>
+          <t>1737.153</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,17 +3412,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-2.51</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3442,32 +3442,32 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3477,22 +3477,22 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>222719690.0</t>
+          <t>-127183711.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
@@ -3614,7 +3614,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3624,102 +3624,102 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>-2.13</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2031.931</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-2.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-1.36</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>7719</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1598.037</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-1.07</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>60.8</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>12401</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-23.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-37433669.0</t>
+          <t>222719690.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3794,17 +3794,17 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS15"/>
+  <dimension ref="A1:AU15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,40 +621,50 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>營業毛利率</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>營業利益率</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
@@ -663,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +683,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7719.11</t>
+          <t>5676.794</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +698,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,17 +733,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -743,12 +753,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -758,17 +768,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +788,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -793,7 +803,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -803,17 +813,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-2483298076.0</t>
+          <t>-947850200.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +843,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,45 +853,55 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -890,7 +910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +920,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12400.626</t>
+          <t>7719.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +935,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -945,22 +965,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -970,12 +990,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -985,17 +1005,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,17 +1025,17 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1030,17 +1050,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>770148564.0</t>
+          <t>-2483298076.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1080,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,45 +1090,55 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1117,7 +1147,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1157,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17316.01</t>
+          <t>12400.626</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1172,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,22 +1202,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-5.02</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1197,32 +1227,32 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1232,12 +1262,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1257,17 +1287,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>3855886946.0</t>
+          <t>770148564.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1287,7 +1317,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,45 +1327,55 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1344,157 +1384,157 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-2.79</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17316.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>66.9</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-3.88</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>40648.646</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>68.8</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-8.01</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>7719</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-4.08</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>226.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>5712346574.0</t>
+          <t>3855886946.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1554,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,45 +1564,55 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1571,7 +1621,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1631,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>34505.897</t>
+          <t>40648.646</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1646,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,22 +1676,22 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-2.98</t>
+          <t>-6.83</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1651,32 +1701,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1686,42 +1736,42 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>226.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>3394548099.0</t>
+          <t>5712346574.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1791,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,45 +1801,55 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1798,7 +1858,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1868,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10930.368</t>
+          <t>34505.897</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1883,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1853,22 +1913,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1878,32 +1938,32 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,12 +1973,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-51.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1943,12 +2003,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1590380965.0</t>
+          <t>3394548099.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1968,7 +2028,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1978,45 +2038,55 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2025,7 +2095,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2105,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7116.017</t>
+          <t>10930.368</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,27 +2120,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>21.30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2080,22 +2150,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2105,32 +2175,32 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2140,12 +2210,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-51.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2155,7 +2225,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2170,12 +2240,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1150448963.0</t>
+          <t>1590380965.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2265,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,45 +2275,55 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2252,7 +2332,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2342,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7876.429</t>
+          <t>7116.017</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,27 +2357,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-4.46</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2307,22 +2387,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2332,32 +2412,32 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2367,12 +2447,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2382,7 +2462,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2397,12 +2477,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>806812593.0</t>
+          <t>1150448963.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2422,7 +2502,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2432,45 +2512,55 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2479,7 +2569,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,12 +2579,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4204.659</t>
+          <t>7876.429</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,27 +2594,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>-4.46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2534,17 +2624,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2559,7 +2649,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2574,17 +2664,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2594,12 +2684,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2624,12 +2714,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>230613351.0</t>
+          <t>806812593.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2649,7 +2739,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2659,45 +2749,55 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2706,7 +2806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2716,12 +2816,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1587.914</t>
+          <t>4204.659</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,27 +2831,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2761,22 +2861,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2786,12 +2886,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2801,17 +2901,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2821,12 +2921,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2851,12 +2951,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-131079276.0</t>
+          <t>230613351.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2876,7 +2976,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2886,45 +2986,55 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2933,7 +3043,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2943,12 +3053,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1925.162</t>
+          <t>1587.914</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2958,114 +3068,114 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>1.31</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-43.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>10.99</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>7719</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-4.08</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-23.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>0</t>
@@ -3078,12 +3188,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-324481094.0</t>
+          <t>-131079276.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3103,7 +3213,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3113,45 +3223,55 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -3160,7 +3280,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3170,12 +3290,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1962.477</t>
+          <t>1925.162</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,114 +3305,114 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>56.7</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>-0.67</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-23.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>7719</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-4.08</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-0.53</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-16.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>0</t>
@@ -3305,12 +3425,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-338084593.0</t>
+          <t>-324481094.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3330,7 +3450,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3340,45 +3460,55 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -3387,7 +3517,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3397,12 +3527,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1737.153</t>
+          <t>1962.477</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,17 +3542,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3432,7 +3562,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3442,22 +3572,22 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3467,7 +3597,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3482,17 +3612,17 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -3502,12 +3632,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3532,12 +3662,12 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-127183711.0</t>
+          <t>-338084593.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3557,7 +3687,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3567,45 +3697,55 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -3614,7 +3754,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3624,12 +3764,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2031.931</t>
+          <t>1737.153</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,17 +3779,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-2.51</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3659,7 +3799,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3669,22 +3809,22 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3694,7 +3834,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3704,22 +3844,22 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3729,12 +3869,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3759,12 +3899,12 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>222719690.0</t>
+          <t>-127183711.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3784,7 +3924,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3794,45 +3934,55 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -673,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5676.794</t>
+          <t>5111.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,27 +698,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,52 +733,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -813,17 +813,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-947850200.0</t>
+          <t>-453618341.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7719.11</t>
+          <t>5676.794</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,27 +935,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -965,37 +965,37 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-3.04</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1005,17 +1005,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-2483298076.0</t>
+          <t>-947850200.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1105,12 +1105,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1147,7 +1147,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12400.626</t>
+          <t>7719.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,27 +1172,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1202,37 +1202,37 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1287,17 +1287,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>770148564.0</t>
+          <t>-2483298076.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17316.01</t>
+          <t>12400.626</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,27 +1409,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1439,57 +1439,57 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-3.88</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>3855886946.0</t>
+          <t>770148564.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1621,157 +1621,157 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-2.79</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17316.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>66.9</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-7.04</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>40648.646</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>68.8</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-6.83</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>5677</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>226.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>5712346574.0</t>
+          <t>3855886946.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1858,7 +1858,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34505.897</t>
+          <t>40648.646</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1883,27 +1883,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1913,57 +1913,57 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-1.86</t>
+          <t>-10.08</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1973,42 +1973,42 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>226.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>3394548099.0</t>
+          <t>5712346574.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2053,12 +2053,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2095,7 +2095,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2105,12 +2105,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10930.368</t>
+          <t>34505.897</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2120,27 +2120,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2150,57 +2150,57 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>-4.96</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-51.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1590380965.0</t>
+          <t>3394548099.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2290,12 +2290,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2342,12 +2342,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7116.017</t>
+          <t>10930.368</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2357,27 +2357,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>21.30</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2387,57 +2387,57 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-51.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2477,12 +2477,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1150448963.0</t>
+          <t>1590380965.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2527,12 +2527,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2579,12 +2579,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7876.429</t>
+          <t>7116.017</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2594,27 +2594,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-4.46</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2624,57 +2624,57 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>806812593.0</t>
+          <t>1150448963.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2806,7 +2806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4204.659</t>
+          <t>7876.429</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2831,27 +2831,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>-4.46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2861,17 +2861,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2881,12 +2881,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2901,17 +2901,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2921,12 +2921,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2951,12 +2951,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>230613351.0</t>
+          <t>806812593.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3043,7 +3043,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1587.914</t>
+          <t>4204.659</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3068,27 +3068,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3098,37 +3098,37 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11.34</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -3138,17 +3138,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-131079276.0</t>
+          <t>230613351.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3238,12 +3238,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3280,7 +3280,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1925.162</t>
+          <t>1587.914</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3305,114 +3305,114 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>1.31</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-43.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>5677</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-23.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>0</t>
@@ -3425,12 +3425,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-324481094.0</t>
+          <t>-131079276.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3517,7 +3517,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3527,12 +3527,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1962.477</t>
+          <t>1925.162</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3542,114 +3542,114 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>56.7</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
           <t>-0.67</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>-23.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>9.94</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5677</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>-0.53</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-16.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
           <t>0</t>
@@ -3662,12 +3662,12 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-338084593.0</t>
+          <t>-324481094.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3712,12 +3712,12 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3754,7 +3754,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1737.153</t>
+          <t>1962.477</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3779,17 +3779,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3809,32 +3809,32 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3849,17 +3849,17 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3869,12 +3869,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3899,12 +3899,12 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-127183711.0</t>
+          <t>-338084593.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,11 +669,16 @@
           <t>flag</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>-4.19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5111.19</t>
+          <t>4682.886</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,67 +738,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -818,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-453618341.0</t>
+          <t>-236434315.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -843,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -853,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -868,17 +873,17 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -904,13 +909,18 @@
       <c r="AU2" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5676.794</t>
+          <t>5111.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -965,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-3.04</t>
+          <t>-4.34</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1040,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1055,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-947850200.0</t>
+          <t>-453618341.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1080,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1090,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1105,17 +1115,17 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1141,13 +1151,18 @@
       <c r="AU3" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1157,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7719.11</t>
+          <t>5676.794</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1202,37 +1217,37 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-7.51</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1242,32 +1257,32 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1277,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1292,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-2483298076.0</t>
+          <t>-947850200.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1317,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1327,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1342,17 +1357,17 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1378,13 +1393,18 @@
       <c r="AU4" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1394,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12400.626</t>
+          <t>7719.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1439,37 +1459,37 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>-6.34</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1479,37 +1499,37 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1529,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>770148564.0</t>
+          <t>-2483298076.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1554,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1564,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1579,17 +1599,17 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1615,13 +1635,18 @@
       <c r="AU5" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1631,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17316.01</t>
+          <t>12400.626</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1646,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1676,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-7.04</t>
+          <t>-9.18</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1766,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>3855886946.0</t>
+          <t>770148564.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1791,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1801,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1816,17 +1841,17 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1852,150 +1877,155 @@
       <c r="AU6" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-2.79</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17316.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>66.9</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-11.69</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>4683</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-4.17</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>40648.646</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>68.8</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-10.08</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>5111</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>226.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
           <t>2025-03-28</t>
@@ -2003,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>5712346574.0</t>
+          <t>3855886946.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2028,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2038,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2053,17 +2083,17 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2089,13 +2119,18 @@
       <c r="AU7" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2105,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>34505.897</t>
+          <t>40648.646</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2120,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2150,102 +2185,102 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-14.86</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>226.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>3394548099.0</t>
+          <t>5712346574.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2265,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2275,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2290,17 +2325,17 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2326,13 +2361,18 @@
       <c r="AU8" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2342,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10930.368</t>
+          <t>34505.897</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2357,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2387,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>-9.52</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-51.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2477,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1590380965.0</t>
+          <t>3394548099.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2502,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2512,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2527,17 +2567,17 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2563,13 +2603,18 @@
       <c r="AU9" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2579,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7116.017</t>
+          <t>10930.368</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2594,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>21.30</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2624,72 +2669,72 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-51.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2699,7 +2744,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2714,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1150448963.0</t>
+          <t>1590380965.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2739,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2749,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2764,17 +2809,17 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2800,13 +2845,18 @@
       <c r="AU10" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2816,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7876.429</t>
+          <t>7116.017</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2831,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-4.46</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2861,72 +2911,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2936,7 +2986,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2951,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>806812593.0</t>
+          <t>1150448963.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2976,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2986,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3001,17 +3051,17 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -3037,13 +3087,18 @@
       <c r="AU11" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3053,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4204.659</t>
+          <t>7876.429</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3068,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>-4.46</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3098,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3118,12 +3173,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3138,32 +3193,32 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3188,12 +3243,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>230613351.0</t>
+          <t>806812593.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3213,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3223,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3238,17 +3293,17 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3276,715 +3331,9 @@
           <t>N</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1587.914</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-1.40</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-0.96</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>5111</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-0.80</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-43.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>-43</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>-131079276.0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>27.06</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>24.94%</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>31.86</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>8867</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-2.32</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1925.162</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5111</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-23.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>-324481094.0</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>27.06</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>24.94%</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>31.86</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>8867</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-1.19</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1962.477</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>5111</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>-0.53</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-16.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>-338084593.0</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>27.06</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>24.94%</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>31.86</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>8867</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-4.19</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4682.886</t>
+          <t>5533.993</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,47 +758,47 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -813,22 +813,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-236434315.0</t>
+          <t>-904485727.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>-8.35</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5111.19</t>
+          <t>5626.989</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-5.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-4.34</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,47 +1000,47 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,27 +1050,27 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-453618341.0</t>
+          <t>-922180424.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-4.19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5676.794</t>
+          <t>4682.886</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-7.51</t>
+          <t>-11.34</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,99 +1242,99 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>-236434315.0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
           <t>1.39</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>51.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>-947850200.0</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>18.92</t>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7719.11</t>
+          <t>5111.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-6.34</t>
+          <t>-16.17</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,47 +1484,47 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-2483298076.0</t>
+          <t>-453618341.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12400.626</t>
+          <t>5676.794</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-9.18</t>
+          <t>-19.7</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,12 +1726,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1741,42 +1741,42 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>770148564.0</t>
+          <t>-947850200.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17316.01</t>
+          <t>7719.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-11.69</t>
+          <t>-18.4</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,52 +1968,52 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>3855886946.0</t>
+          <t>-2483298076.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,144 +2130,144 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-2.22</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12400.626</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>65.4</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-21.56</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>5534</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-4.64</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>40648.646</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>68.8</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-14.86</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4683</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-4.17</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>226.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
           <t>2025-03-28</t>
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>5712346574.0</t>
+          <t>770148564.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>-2.79</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>34505.897</t>
+          <t>17316.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>33.74</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>66.9</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,22 +2427,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-9.52</t>
+          <t>-24.35</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2452,52 +2452,52 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>194.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2507,22 +2507,22 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>3394548099.0</t>
+          <t>3855886946.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10930.368</t>
+          <t>40648.646</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>-27.88</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2694,77 +2694,77 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>226.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-51.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1590380965.0</t>
+          <t>5712346574.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7116.017</t>
+          <t>34505.897</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,22 +2911,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-21.93</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2936,47 +2936,47 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1150448963.0</t>
+          <t>3394548099.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7876.429</t>
+          <t>10930.368</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-4.46</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>21.30</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,22 +3153,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>-17.1</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3178,47 +3178,47 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-51.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>806812593.0</t>
+          <t>1590380965.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-11.02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5533.993</t>
+          <t>1285.431</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,132 +703,132 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>43.55</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>53.8</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-4.96</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-2.62</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5534</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-4.64</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-904485727.0</t>
+          <t>-220771210.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-8.35</t>
+          <t>-11.07</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5626.989</t>
+          <t>182.676</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,132 +945,132 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-5.63</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>-3.37</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>48.35</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-11.02</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-16.20</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-1.61</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>55.1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-2.42</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5534</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-4.64</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-0.66</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-922180424.0</t>
+          <t>-466750944.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-4.19</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4682.886</t>
+          <t>2880.242</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,132 +1187,132 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-23.31</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-2.47</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>59.9</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-11.34</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5534</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-4.64</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-236434315.0</t>
+          <t>-776829452.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5111.19</t>
+          <t>5533.993</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-16.17</t>
+          <t>-23.54</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5534</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,22 +1539,22 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-453618341.0</t>
+          <t>-904485727.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-8.35</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5676.794</t>
+          <t>5626.989</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-5.63</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-19.7</t>
+          <t>-26.52</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5534</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,27 +1776,27 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-947850200.0</t>
+          <t>-922180424.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>-4.19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7719.11</t>
+          <t>4682.886</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,102 +1913,102 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>59.9</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-37.54</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-18.4</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>5534</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-2483298076.0</t>
+          <t>-236434315.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12400.626</t>
+          <t>5111.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,77 +2185,77 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-21.56</t>
+          <t>-43.51</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5534</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>770148564.0</t>
+          <t>-453618341.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17316.01</t>
+          <t>5676.794</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,82 +2427,82 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-24.35</t>
+          <t>-47.88</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5534</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>3855886946.0</t>
+          <t>-947850200.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -2614,144 +2614,144 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-2.57</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7719.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-46.27</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>40648.646</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>68.8</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-27.88</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>5534</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-4.64</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>226.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
           <t>2025-03-28</t>
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>5712346574.0</t>
+          <t>-2483298076.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -2848,490 +2848,6 @@
         </is>
       </c>
       <c r="AV10" t="inlineStr">
-        <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>34505.897</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>67.23</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>65.6</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-21.93</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>5534</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-4.64</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>146.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-36.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>3394548099.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>23.29</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>24.94%</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>28.94</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>7633</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10930.368</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-0.86</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>21.30</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-17.1</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>5534</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-4.64</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>-0.34</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-51.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>-51</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>1590380965.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>23.29</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>24.94%</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>28.94</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>7633</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1285.431</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,52 +738,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-220771210.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-11.07</t>
+          <t>-10.81</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>182.676</t>
+          <t>7305.434</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-3.37</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,57 +975,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-16.20</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-466750944.0</t>
+          <t>-352963469.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-11.02</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2880.242</t>
+          <t>1285.431</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>43.55</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,57 +1217,57 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-23.31</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>-4.96</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-776829452.0</t>
+          <t>-220771210.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-11.07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5533.993</t>
+          <t>182.676</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,114 +1429,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-3.37</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>48.35</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-12.18</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-16.20</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-1.61</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>53.8</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-23.54</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1285</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-904485727.0</t>
+          <t>-466750944.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-8.35</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5626.989</t>
+          <t>2880.242</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,114 +1671,114 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-5.63</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-24.59</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-2.47</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>55.1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-26.52</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1285</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-0.66</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-922180424.0</t>
+          <t>-776829452.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-4.19</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4682.886</t>
+          <t>5533.993</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,57 +1943,57 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-37.54</t>
+          <t>-24.83</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2023,22 +2023,22 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-236434315.0</t>
+          <t>-904485727.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>-8.35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5111.19</t>
+          <t>5626.989</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-5.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,57 +2185,57 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-43.51</t>
+          <t>-27.84</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2260,27 +2260,27 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-453618341.0</t>
+          <t>-922180424.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-4.19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5676.794</t>
+          <t>4682.886</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,102 +2427,102 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-47.88</t>
+          <t>-38.98</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1285</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>51.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-947850200.0</t>
+          <t>-236434315.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7719.11</t>
+          <t>5111.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,57 +2669,57 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-46.27</t>
+          <t>-45.01</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-2483298076.0</t>
+          <t>-453618341.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,22 +703,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -738,12 +738,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,37 +753,37 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7305.434</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,57 +975,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-352963469.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>-10.81</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1285.431</t>
+          <t>7305.434</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,57 +1217,57 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-220771210.0</t>
+          <t>-352963469.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-11.07</t>
+          <t>-11.02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>182.676</t>
+          <t>1285.431</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1434,22 +1434,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-3.37</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>43.55</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,57 +1459,57 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-12.18</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-16.20</t>
+          <t>-4.96</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-466750944.0</t>
+          <t>-220771210.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-11.07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2880.242</t>
+          <t>182.676</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>-3.37</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,57 +1701,57 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-24.59</t>
+          <t>-12.18</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>-16.20</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-776829452.0</t>
+          <t>-466750944.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5533.993</t>
+          <t>2880.242</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,114 +1913,114 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-24.59</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>4897</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-2.47</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>53.8</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-24.83</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>4216</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-904485727.0</t>
+          <t>-776829452.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-8.35</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5626.989</t>
+          <t>5533.993</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-5.63</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,57 +2185,57 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-27.84</t>
+          <t>-24.83</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-922180424.0</t>
+          <t>-904485727.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-4.19</t>
+          <t>-8.35</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4682.886</t>
+          <t>5626.989</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-5.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,57 +2427,57 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-38.98</t>
+          <t>-27.84</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2502,27 +2502,27 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-236434315.0</t>
+          <t>-922180424.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>-4.19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5111.19</t>
+          <t>4682.886</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,57 +2669,57 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-45.01</t>
+          <t>-38.98</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-453618341.0</t>
+          <t>-236434315.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,129 +688,129 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>4897</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>0</t>
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,22 +945,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -975,84 +975,84 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-4.59</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-2.30</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>4897</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.21</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-1.46</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-4.24</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-1.72</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>39.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7305.434</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,57 +1217,57 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-352963469.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>-10.81</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1285.431</t>
+          <t>7305.434</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,57 +1459,57 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-220771210.0</t>
+          <t>-352963469.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-11.07</t>
+          <t>-11.02</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>182.676</t>
+          <t>1285.431</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1676,22 +1676,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-3.37</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>43.55</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,57 +1701,57 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-12.18</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-16.20</t>
+          <t>-4.96</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-466750944.0</t>
+          <t>-220771210.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-11.07</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2880.242</t>
+          <t>182.676</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>-3.37</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,57 +1943,57 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-24.59</t>
+          <t>-8.04</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>-16.20</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-776829452.0</t>
+          <t>-466750944.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5533.993</t>
+          <t>2880.242</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,114 +2155,114 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-20.0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-2.47</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>53.8</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-24.83</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4897</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-904485727.0</t>
+          <t>-776829452.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-8.35</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5626.989</t>
+          <t>5533.993</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-5.63</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,57 +2427,57 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-27.84</t>
+          <t>-20.22</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-922180424.0</t>
+          <t>-904485727.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-4.19</t>
+          <t>-8.35</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4682.886</t>
+          <t>5626.989</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-5.63</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,102 +2669,102 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-38.98</t>
+          <t>-23.13</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>4897</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-236434315.0</t>
+          <t>-922180424.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,67 +738,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>-4.54</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,129 +930,129 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>4027</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-2.66</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,22 +1187,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,52 +1237,52 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7305.434</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-352963469.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>-10.81</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1285.431</t>
+          <t>7305.434</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,62 +1701,62 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>16.33</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-220771210.0</t>
+          <t>-352963469.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-11.07</t>
+          <t>-11.02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>182.676</t>
+          <t>1285.431</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1918,22 +1918,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-3.37</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>43.55</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,72 +1943,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-8.04</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-16.20</t>
+          <t>-4.96</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-466750944.0</t>
+          <t>-220771210.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-11.07</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2880.242</t>
+          <t>182.676</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>-3.37</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>-3.2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>-16.20</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-776829452.0</t>
+          <t>-466750944.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5533.993</t>
+          <t>2880.242</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,114 +2397,114 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-14.62</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-2.47</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>53.8</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-20.22</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>4027</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-2.66</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-904485727.0</t>
+          <t>-776829452.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-8.35</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5626.989</t>
+          <t>5533.993</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-5.63</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,102 +2669,102 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-23.13</t>
+          <t>-14.83</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-1.31</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>4027</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-2.66</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-0.66</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-922180424.0</t>
+          <t>-904485727.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>11349.787</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,52 +738,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>11350</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>947868155.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,57 +975,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>11350</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>-4.54</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,129 +1172,129 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>11350</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-2.91</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>11350</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,37 +1479,37 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7305.434</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,57 +1701,57 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>16.33</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>11350</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-352963469.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>-10.81</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1285.431</t>
+          <t>7305.434</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,57 +1943,57 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>18.16</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>11350</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-220771210.0</t>
+          <t>-352963469.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-11.07</t>
+          <t>-11.02</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>182.676</t>
+          <t>1285.431</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2160,22 +2160,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-3.37</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>43.55</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,57 +2185,57 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>11350</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-16.20</t>
+          <t>-4.96</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-466750944.0</t>
+          <t>-220771210.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-11.07</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2880.242</t>
+          <t>182.676</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>-3.37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,57 +2427,57 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-14.62</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>11350</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>-16.20</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-776829452.0</t>
+          <t>-466750944.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5533.993</t>
+          <t>2880.242</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,114 +2639,114 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-12.11</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>11350</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-2.91</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-2.47</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>53.8</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-14.83</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-904485727.0</t>
+          <t>-776829452.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11349.787</t>
+          <t>7236.498</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11350</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,47 +758,47 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-4.29</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>947868155.0</t>
+          <t>1114993573.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>11349.787</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>11350</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,47 +1000,47 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>947868155.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>11350</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,47 +1242,47 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>-4.54</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,129 +1414,129 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>7236</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>11350</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-2.91</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,22 +1671,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>11350</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,47 +1726,47 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7305.434</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>18.16</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>11350</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,47 +1968,47 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-352963469.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>-10.81</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1285.431</t>
+          <t>7305.434</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,22 +2185,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11350</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2210,37 +2210,37 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-220771210.0</t>
+          <t>-352963469.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-11.07</t>
+          <t>-11.02</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>182.676</t>
+          <t>1285.431</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2402,22 +2402,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-3.37</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>43.55</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,22 +2427,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>11350</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2452,47 +2452,47 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-16.20</t>
+          <t>-4.96</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-466750944.0</t>
+          <t>-220771210.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-11.07</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2880.242</t>
+          <t>182.676</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>-3.37</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-12.11</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>11350</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2694,47 +2694,47 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>-16.20</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-776829452.0</t>
+          <t>-466750944.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7236.498</t>
+          <t>7841.302</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,67 +738,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7236</t>
+          <t>7841</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1114993573.0</t>
+          <t>522976095.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7190</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11349.787</t>
+          <t>7236.498</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7236</t>
+          <t>7841</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-4.29</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>947868155.0</t>
+          <t>1114993573.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7190</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>11349.787</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7236</t>
+          <t>7841</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>947868155.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7190</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7236</t>
+          <t>7841</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>-4.54</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7190</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,129 +1656,129 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7841</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>10.86</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>7236</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7190</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,22 +1913,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7236</t>
+          <t>7841</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,52 +1963,52 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7190</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7305.434</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,132 +2185,132 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7841</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-4.24</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-1.72</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>-162466750.0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
           <t>18.92</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>7236</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-2.40</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-3.72</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-1.10</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>-352963469.0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7190</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>-10.81</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1285.431</t>
+          <t>7305.434</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,62 +2427,62 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>17.82</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7236</t>
+          <t>7841</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-220771210.0</t>
+          <t>-352963469.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7190</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,240 +2614,482 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-11.02</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1285.431</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-2.54</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>43.55</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7841</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-4.96</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-2.62</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>-220771210.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>24.94%</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>3605</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>-11.07</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>182.676</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>-3.37</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>0.36</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>1.17</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>48.35</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.36</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7841</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-16.20</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-1.61</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>7236</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-16.20</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-1.61</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>67.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>-466750944.0</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>18.92</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>24.94%</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>4.28%</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>25.13</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>7190</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7841.302</t>
+          <t>4546.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,102 +703,102 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>44.65</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.79</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.55</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-46.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>522976095.0</t>
+          <t>-762406350.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-5.47</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7236.498</t>
+          <t>3923.913</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,114 +945,114 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-4.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4546</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-1.89</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-48.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>48.35</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-1.36</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>7841</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-1.24</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-4.01</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-3.49</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-45.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1114993573.0</t>
+          <t>-207789487.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11349.787</t>
+          <t>7841.302</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-6.83</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-4.29</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>947868155.0</t>
+          <t>522976095.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>7236.498</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>-8.29</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>1114993573.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>11349.787</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>-7.28</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>947868155.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4897.137</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,72 +1943,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>-4.93</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-4.59</t>
+          <t>-4.54</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-2.30</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4026.887</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>44.75</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.69</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>-24.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7305.434</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>17.82</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-352963469.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1285.431</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,72 +2669,72 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-220771210.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-11.07</t>
+          <t>-10.81</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>182.676</t>
+          <t>7305.434</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,215 +2881,457 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>-3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-2.15</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>39.2</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>4546</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-1.89</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-2.40</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-3.72</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-1.10</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>-352963469.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>24.94%</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>6640</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>電子零組件業平</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-11.02</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1285.431</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-3.37</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>48.35</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-1.36</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>7841</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-1.24</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-16.20</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-1.61</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>67.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-2.54</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>43.55</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>4546</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-1.89</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-4.96</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-2.62</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>-466750944.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>-220771210.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>18.92</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>20.65</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
         <is>
           <t>24.94%</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>4.28%</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>25.21</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>7094</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>6640</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>電子零組件業平</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,47 +758,47 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-5.47</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3923.913</t>
+          <t>4546.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-4.98</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1010,37 +1010,37 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-3.79</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-207789487.0</t>
+          <t>-762406350.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-5.47</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7841.302</t>
+          <t>3923.913</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,114 +1187,114 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-4.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-48.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-6.83</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>4546</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-1.89</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-3.79</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-3.55</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-46.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>522976095.0</t>
+          <t>-207789487.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7236.498</t>
+          <t>7841.302</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-8.29</t>
+          <t>-2.58</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,47 +1484,47 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1114993573.0</t>
+          <t>522976095.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11349.787</t>
+          <t>7236.498</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-7.28</t>
+          <t>-3.98</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,47 +1726,47 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-4.29</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>947868155.0</t>
+          <t>1114993573.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>11349.787</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-4.93</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,47 +1968,47 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>947868155.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,84 +2185,84 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>-0.22</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4546</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-4.54</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-3.13</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-37.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-1.89</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-4.69</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-2.78</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-24.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,129 +2382,129 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>4546</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-1.89</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,22 +2639,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2694,47 +2694,47 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7305.434</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,22 +2911,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2936,47 +2936,47 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-352963469.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>-10.81</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1285.431</t>
+          <t>7305.434</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,22 +3153,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3178,37 +3178,37 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-220771210.0</t>
+          <t>-352963469.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2756.942</t>
+          <t>1824.319</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -773,32 +773,32 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>-3.58</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-3.62</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-257161676.0</t>
+          <t>-161637244.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,47 +1000,47 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-5.47</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3923.913</t>
+          <t>4546.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-4.98</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1252,37 +1252,37 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-3.79</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-207789487.0</t>
+          <t>-762406350.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-5.47</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7841.302</t>
+          <t>3923.913</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,114 +1429,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-4.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-2.28</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-48.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-2.58</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2757</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-0.73</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-3.79</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-3.55</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-46.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>522976095.0</t>
+          <t>-207789487.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7236.498</t>
+          <t>7841.302</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-3.98</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,47 +1726,47 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1114993573.0</t>
+          <t>522976095.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11349.787</t>
+          <t>7236.498</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>-4.99</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,47 +1968,47 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-4.29</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>947868155.0</t>
+          <t>1114993573.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>11349.787</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,22 +2185,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-4.02</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2210,47 +2210,47 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>947868155.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,22 +2427,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2452,47 +2452,47 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>-4.54</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,129 +2624,129 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-2.28</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2757</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-0.73</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,22 +2881,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2936,47 +2936,47 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7305.434</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,22 +3153,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3178,47 +3178,47 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-352963469.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1824.319</t>
+          <t>1687.397</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>46.05</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -743,62 +743,62 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-161637244.0</t>
+          <t>123906418.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2756.942</t>
+          <t>1824.319</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -985,62 +985,62 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-2.14</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-3.58</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-2.28</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-3.58</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-3.62</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-257161676.0</t>
+          <t>-161637244.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1227,62 +1227,62 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-5.47</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3923.913</t>
+          <t>4546.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-4.98</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1469,22 +1469,22 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1494,37 +1494,37 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-3.79</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-207789487.0</t>
+          <t>-762406350.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-5.47</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7841.302</t>
+          <t>3923.913</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,114 +1671,114 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-4.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1687</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-2.14</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-48.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-3.58</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1824</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-2.28</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-3.79</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-3.55</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-46.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>522976095.0</t>
+          <t>-207789487.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7236.498</t>
+          <t>7841.302</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-4.99</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1953,62 +1953,62 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1114993573.0</t>
+          <t>522976095.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11349.787</t>
+          <t>7236.498</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-4.02</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -2195,62 +2195,62 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-4.29</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>947868155.0</t>
+          <t>1114993573.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>11349.787</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2437,62 +2437,62 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>947868155.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2679,74 +2679,74 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-2.14</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-4.54</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-3.13</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-37.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-2.28</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-4.69</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-2.78</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-24.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,129 +2866,129 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1687</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-2.14</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1824</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-2.28</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>0</t>
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,22 +3123,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3173,52 +3173,52 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1687.397</t>
+          <t>1850.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,32 +758,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>123906418.0</t>
+          <t>83194503.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1824.319</t>
+          <t>1687.397</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>46.05</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,32 +1000,32 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-161637244.0</t>
+          <t>123906418.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2756.942</t>
+          <t>1824.319</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1257,19 +1257,19 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>-3.58</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-3.62</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>50.0</t>
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-257161676.0</t>
+          <t>-161637244.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,32 +1484,32 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-5.47</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3923.913</t>
+          <t>4546.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-4.98</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1736,22 +1736,22 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-3.79</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-207789487.0</t>
+          <t>-762406350.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-5.47</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7841.302</t>
+          <t>3923.913</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,114 +1913,114 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-4.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1851</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>-48.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-1.92</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1687</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-2.14</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-3.79</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-3.55</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-46.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>522976095.0</t>
+          <t>-207789487.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7236.498</t>
+          <t>7841.302</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,22 +2185,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2210,32 +2210,32 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1114993573.0</t>
+          <t>522976095.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11349.787</t>
+          <t>7236.498</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,22 +2427,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-2.35</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2452,32 +2452,32 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-4.29</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>947868155.0</t>
+          <t>1114993573.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>11349.787</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2694,32 +2694,32 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>947868155.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,22 +2911,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2936,32 +2936,32 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>-4.54</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3098,240 +3098,966 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1851</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>161541084.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>24.94%</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>3605</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>4897.137</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>11.08</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1.76</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>9.54</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>43.1</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1687</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1851</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-2.14</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>-0.24</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>-1.00</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>-4.59</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>-2.30</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>46.0</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>-308324284.0</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>18.92</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
         <is>
           <t>24.94%</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>4.28%</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>26.12</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>6960</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AV12" t="inlineStr">
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4215.907</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-0.94</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>43.1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1851</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>-4.24</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-1.72</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>-162466750.0</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>24.94%</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-10.81</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7305.434</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-3.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-2.15</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>39.2</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1851</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>-2.40</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>-3.72</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>-1.10</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>-352963469.0</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>24.94%</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1850.73</t>
+          <t>2838.038</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -768,47 +768,47 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>83194503.0</t>
+          <t>304806565.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1687.397</t>
+          <t>1850.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,47 +1000,47 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>123906418.0</t>
+          <t>83194503.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1824.319</t>
+          <t>1687.397</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46.05</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,47 +1242,47 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-161637244.0</t>
+          <t>123906418.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2756.942</t>
+          <t>1824.319</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1499,32 +1499,32 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>-3.58</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-3.62</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-257161676.0</t>
+          <t>-161637244.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,47 +1726,47 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-5.47</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3923.913</t>
+          <t>4546.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-4.98</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1978,37 +1978,37 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-3.79</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-207789487.0</t>
+          <t>-762406350.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-5.47</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7841.302</t>
+          <t>3923.913</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,114 +2155,114 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-4.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2838</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-48.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1851</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-3.79</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-3.55</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-46.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>522976095.0</t>
+          <t>-207789487.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7236.498</t>
+          <t>7841.302</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,22 +2427,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2452,47 +2452,47 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1114993573.0</t>
+          <t>522976095.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11349.787</t>
+          <t>7236.498</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2694,47 +2694,47 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-4.29</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>947868155.0</t>
+          <t>1114993573.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>11349.787</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,22 +2911,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2936,47 +2936,47 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>947868155.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,22 +3153,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3178,47 +3178,47 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>-4.54</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3350,129 +3350,129 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2838</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1851</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>0</t>
@@ -3485,12 +3485,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3582,7 +3582,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3592,12 +3592,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,22 +3607,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3662,47 +3662,47 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3824,7 +3824,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7305.434</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,22 +3879,22 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3904,47 +3904,47 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-352963469.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV15"/>
+  <dimension ref="A1:AV13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2838.038</t>
+          <t>1379.374</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,57 +738,57 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -798,17 +798,17 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>304806565.0</t>
+          <t>118699795.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1850.73</t>
+          <t>3606.925</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,82 +975,82 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>83194503.0</t>
+          <t>189698077.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1687.397</t>
+          <t>4551.037</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,77 +1217,77 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>-3.97</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>123906418.0</t>
+          <t>450405408.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1824.319</t>
+          <t>2838.038</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>46.05</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,82 +1459,82 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-161637244.0</t>
+          <t>304806565.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2756.942</t>
+          <t>1850.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-3.62</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-257161676.0</t>
+          <t>83194503.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>1687.397</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,72 +1943,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>123906418.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-5.47</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3923.913</t>
+          <t>1824.319</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-4.98</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-3.79</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-207789487.0</t>
+          <t>-161637244.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7841.302</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,114 +2397,114 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>46.5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-3.58</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-3.62</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-52.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2838</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>-3.79</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-3.55</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-46.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>522976095.0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7236.498</t>
+          <t>4546.47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,72 +2669,72 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1114993573.0</t>
+          <t>-762406350.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-5.47</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11349.787</t>
+          <t>3923.913</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,114 +2881,114 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>-4.98</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-48.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2838</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-4.29</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-3.36</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-42.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>0</t>
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>947868155.0</t>
+          <t>-207789487.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>7841.302</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,72 +3153,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>522976095.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3350,12 +3350,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>7236.498</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,27 +3365,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,32 +3395,32 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3430,37 +3430,37 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>1114993573.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3574,490 +3574,6 @@
         </is>
       </c>
       <c r="AV13" t="inlineStr">
-        <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2838</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>-308324284.0</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>24.94%</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>7183</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4215.907</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-0.94</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2838</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>-0.21</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>-1.46</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>-4.24</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-1.72</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>39.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>-162466750.0</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>24.94%</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>7183</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV15" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1379.374</t>
+          <t>1346.551</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,12 +738,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,14 +793,14 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>-29.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>-27.0</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-43.0</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>False</t>
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>118699795.0</t>
+          <t>-42104656.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3606.925</t>
+          <t>1379.374</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,32 +1000,32 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.84</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>189698077.0</t>
+          <t>118699795.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4551.037</t>
+          <t>3606.925</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-3.97</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,32 +1242,32 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>450405408.0</t>
+          <t>189698077.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2838.038</t>
+          <t>4551.037</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-3.76</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,32 +1484,32 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>304806565.0</t>
+          <t>450405408.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1850.73</t>
+          <t>2838.038</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,34 +1701,34 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>-0.31</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1379</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
           <t>0.03</t>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,22 +1761,22 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>83194503.0</t>
+          <t>304806565.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1687.397</t>
+          <t>1850.73</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,32 +1968,32 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>123906418.0</t>
+          <t>83194503.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1824.319</t>
+          <t>1687.397</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>46.05</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,22 +2185,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2210,32 +2210,32 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-161637244.0</t>
+          <t>123906418.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2756.942</t>
+          <t>1824.319</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,22 +2427,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2467,19 +2467,19 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
           <t>-3.58</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-3.62</t>
-        </is>
-      </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>50.0</t>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-257161676.0</t>
+          <t>-161637244.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,57 +2669,57 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-5.47</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3923.913</t>
+          <t>4546.47</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-4.98</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,22 +2911,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-3.79</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-207789487.0</t>
+          <t>-762406350.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-5.47</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7841.302</t>
+          <t>3923.913</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,114 +3123,114 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-4.98</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-48.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1379</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-3.79</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-3.55</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-46.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>0</t>
@@ -3243,12 +3243,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>522976095.0</t>
+          <t>-207789487.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3350,12 +3350,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7236.498</t>
+          <t>7841.302</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,17 +3365,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,22 +3395,22 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3420,32 +3420,32 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1114993573.0</t>
+          <t>522976095.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1346.551</t>
+          <t>2481.873</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>49.65</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -773,22 +773,22 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-42104656.0</t>
+          <t>252721468.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1379.374</t>
+          <t>1346.551</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1015,34 +1015,34 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>-29.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>-27.0</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-43.0</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>False</t>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>118699795.0</t>
+          <t>-42104656.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3606.925</t>
+          <t>1379.374</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,52 +1242,52 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-2.84</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>189698077.0</t>
+          <t>118699795.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4551.037</t>
+          <t>3606.925</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-3.76</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,47 +1484,47 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>450405408.0</t>
+          <t>189698077.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2838.038</t>
+          <t>4551.037</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,42 +1726,42 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>304806565.0</t>
+          <t>450405408.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1850.73</t>
+          <t>2838.038</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1978,47 +1978,47 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>83194503.0</t>
+          <t>304806565.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1687.397</t>
+          <t>1850.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,22 +2185,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2210,47 +2210,47 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>123906418.0</t>
+          <t>83194503.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1824.319</t>
+          <t>1687.397</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>46.05</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,22 +2427,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2452,47 +2452,47 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-161637244.0</t>
+          <t>123906418.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2756.942</t>
+          <t>1824.319</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2709,32 +2709,32 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
           <t>-3.58</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-3.62</t>
-        </is>
-      </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-257161676.0</t>
+          <t>-161637244.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,72 +2911,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-5.47</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3923.913</t>
+          <t>4546.47</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-4.98</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,22 +3153,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3188,37 +3188,37 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-3.79</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-207789487.0</t>
+          <t>-762406350.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3350,12 +3350,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-5.47</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7841.302</t>
+          <t>3923.913</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,114 +3365,114 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-4.98</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-48.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1347</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>-3.79</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-3.55</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-46.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>0</t>
@@ -3485,12 +3485,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>522976095.0</t>
+          <t>-207789487.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2481.873</t>
+          <t>9033.967</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>17.60</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>49.65</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,32 +738,32 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -773,32 +773,32 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-29.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>252721468.0</t>
+          <t>651345370.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1346.551</t>
+          <t>2481.873</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>49.65</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,37 +975,37 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1015,22 +1015,22 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-42104656.0</t>
+          <t>252721468.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1379.374</t>
+          <t>1346.551</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1257,34 +1257,34 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>-29.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>-27.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-43.0</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>False</t>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>118699795.0</t>
+          <t>-42104656.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3606.925</t>
+          <t>1379.374</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,77 +1459,77 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-2.84</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>189698077.0</t>
+          <t>118699795.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4551.037</t>
+          <t>3606.925</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>450405408.0</t>
+          <t>189698077.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2838.038</t>
+          <t>4551.037</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,67 +1943,67 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>304806565.0</t>
+          <t>450405408.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1850.73</t>
+          <t>2838.038</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,32 +2185,32 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2220,47 +2220,47 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>83194503.0</t>
+          <t>304806565.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1687.397</t>
+          <t>1850.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>123906418.0</t>
+          <t>83194503.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1824.319</t>
+          <t>1687.397</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>46.05</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,72 +2669,72 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-161637244.0</t>
+          <t>123906418.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2756.942</t>
+          <t>1824.319</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,32 +2911,32 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2951,32 +2951,32 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
           <t>-3.58</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-3.62</t>
-        </is>
-      </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-257161676.0</t>
+          <t>-161637244.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,72 +3153,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3340,240 +3340,482 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-1.02</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4546.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-1.81</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>44.65</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>9034</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-3.78</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-3.63</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-49.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>-49</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>-762406350.0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>24.94%</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>7778</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>3605</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>-5.47</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>3923.913</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>-4.98</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>-1.28</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>1.47</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>45.1</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2482</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>9034</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>-0.10</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>-0.05</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>-3.79</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>-3.60</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>-48.0</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
         <is>
           <t>-48</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>-207789487.0</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>18.92</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>21.49</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
         <is>
           <t>24.94%</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>4.28%</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>27.86</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>7384</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>7778</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
         <is>
           <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV14"/>
+  <dimension ref="A1:AS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,215 +461,200 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>箱型力量</t>
+          <t>量能</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>箱型力量_5均</t>
+          <t>短增量</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>量能</t>
+          <t>now_price</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>短增量</t>
+          <t>rt_price</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>rt_price</t>
+          <t>盤後量</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>成交量</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>盤後量</t>
+          <t>淨值倍率</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>成交量</t>
+          <t>貝他值</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>淨值倍率</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>貝他值</t>
+          <t>MA5_%</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>均價_%</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>MA5_%</t>
+          <t>MACD_%</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>均價_%</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>MACD_%</t>
+          <t>MACD-SL</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>LevelArea</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>MACD-SL</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>LevelArea</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>短交易量</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>MA_break</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Trend_change</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>highlight_enddate</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>營業毛利率</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>營業利益率</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>營業毛利率</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>營業利益率</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>Typelevel</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>短增level</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Typelevel</t>
+          <t>flag</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>短增level</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>flag</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -678,240 +663,225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7352.888</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>7353</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-1.76</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9033.967</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>17.60</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>9034</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-2.03</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-17.0</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>206800184.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>651345370.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -920,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2481.873</t>
+          <t>9033.967</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,215 +915,200 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>17.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>49.65</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-29.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>651345370.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>252721468.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -1162,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1346.551</t>
+          <t>2481.873</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,215 +1142,200 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>49.65</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-29.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>252721468.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-42104656.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -1404,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1379.374</t>
+          <t>1346.551</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,215 +1369,200 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-42104656.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>118699795.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -1646,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3606.925</t>
+          <t>1379.374</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,215 +1596,200 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>7353</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-1.94</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>9.94</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>9034</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-2.10</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-2.84</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118699795.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>189698077.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -1888,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4551.037</t>
+          <t>3606.925</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,215 +1823,200 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>189698077.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>450405408.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -2130,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2838.038</t>
+          <t>4551.037</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,215 +2050,200 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-33.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>450405408.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>304806565.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -2372,7 +2252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1850.73</t>
+          <t>2838.038</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,215 +2277,200 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>304806565.0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>83194503.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -2614,7 +2479,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2489,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1687.397</t>
+          <t>1850.73</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,215 +2504,200 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-47.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>83194503.0</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>123906418.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -2856,7 +2706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1824.319</t>
+          <t>1687.397</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,215 +2731,200 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>46.05</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>123906418.0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-161637244.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -3098,7 +2933,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +2943,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2756.942</t>
+          <t>1824.319</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,215 +2958,200 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11.09</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-3.62</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-161637244.0</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-257161676.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -3340,7 +3160,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3350,12 +3170,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,457 +3185,200 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>14.63</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-5.47</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3923.913</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-4.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-1.28</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>13.77</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>9034</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-3.79</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-3.60</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-48.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>-48</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>-207789487.0</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>宏致</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>22.64</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>24.94%</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>28.15</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>7778</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>宏致-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>

--- a/Result/checktemp.xlsx
+++ b/Result/checktemp.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,57 +673,57 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5691.317</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7352.888</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>14.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -743,22 +743,22 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-1.76</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>206800184.0</t>
+          <t>390496232.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>57.79</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>7956</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -890,142 +890,142 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7352.888</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>5691</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-1.48</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-1.76</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9033.967</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>17.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>7353</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-2.03</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>651345370.0</t>
+          <t>206800184.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>57.79</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>7956</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2481.873</t>
+          <t>9033.967</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>17.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>49.65</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1162,22 +1162,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1187,12 +1187,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1202,17 +1202,17 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1237,22 +1237,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>252721468.0</t>
+          <t>651345370.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>57.79</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>7956</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1346.551</t>
+          <t>2481.873</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>49.65</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1389,22 +1389,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-42104656.0</t>
+          <t>252721468.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1524,12 +1524,12 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>57.79</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>7956</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1379.374</t>
+          <t>1346.551</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1616,17 +1616,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1656,17 +1656,17 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>118699795.0</t>
+          <t>-42104656.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>57.79</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>7956</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3606.925</t>
+          <t>1379.374</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1843,22 +1843,22 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1868,32 +1868,32 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-2.84</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1903,17 +1903,17 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>189698077.0</t>
+          <t>118699795.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>57.79</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>7956</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4551.037</t>
+          <t>3606.925</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2070,22 +2070,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2095,32 +2095,32 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -2130,12 +2130,12 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-33.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2155,12 +2155,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>450405408.0</t>
+          <t>189698077.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>57.79</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>7956</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2838.038</t>
+          <t>4551.037</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,22 +2297,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2322,32 +2322,32 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2357,12 +2357,12 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-33.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>304806565.0</t>
+          <t>450405408.0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="AH9" t="inline